--- a/KnowledgeGraph/data/attribution.xlsx
+++ b/KnowledgeGraph/data/attribution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16728" windowHeight="9720"/>
+    <workbookView windowWidth="20760" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>名称</t>
   </si>
@@ -28,6 +28,138 @@
   </si>
   <si>
     <t>类别</t>
+  </si>
+  <si>
+    <t>收益类型</t>
+  </si>
+  <si>
+    <t>保本,收益,收入,利息,盈利</t>
+  </si>
+  <si>
+    <t>是否保证本金,收益是否为定值</t>
+  </si>
+  <si>
+    <t>保证收益,非保本浮动收益,保本浮动收益</t>
+  </si>
+  <si>
+    <t>投资性质</t>
+  </si>
+  <si>
+    <t>投资方向,投资用途,投资组成</t>
+  </si>
+  <si>
+    <t>按照投资时在权益类,债权类,金融衍生品类三者中主要投资种类来划分</t>
+  </si>
+  <si>
+    <t>固定收益类,权益类,商品及金融衍生品类,混合类</t>
+  </si>
+  <si>
+    <t>投资资产类型</t>
+  </si>
+  <si>
+    <t>投资种类,标的资产</t>
+  </si>
+  <si>
+    <t>按照标的资产不同来划分</t>
+  </si>
+  <si>
+    <t>拆放同业及买入返售类,代客境外投资类,非标准化债权类,公募基金类,股票类,股权类,混合类,货币市场工具类,结构性投资类,理财直接融资工具类,另类投资类,同业存单类,银行存款类,债权类</t>
+  </si>
+  <si>
+    <t>管理主体</t>
+  </si>
+  <si>
+    <t>管理人,服务提供人,负责人,发布人</t>
+  </si>
+  <si>
+    <t>产品由银行还是银行子公司发布</t>
+  </si>
+  <si>
+    <t>银行理财产品,银行理财子公司产品</t>
+  </si>
+  <si>
+    <t>开放形态</t>
+  </si>
+  <si>
+    <t>可操作时间,交易时间,流动性,开放时间,买入时间,买回时间</t>
+  </si>
+  <si>
+    <t>可以进行赎回和申购操作的时间是否受限</t>
+  </si>
+  <si>
+    <t>封闭式,开放式</t>
+  </si>
+  <si>
+    <t>募集方式</t>
+  </si>
+  <si>
+    <t>筹资方式,筹集资金的方式,销售方式</t>
+  </si>
+  <si>
+    <t>理财产品面向开放的人群不同</t>
+  </si>
+  <si>
+    <t>公募,私募</t>
+  </si>
+  <si>
+    <t>产品类型</t>
+  </si>
+  <si>
+    <t>收益怎么变,收益计算,利息计算,计算利息,计算收益,收益计算</t>
+  </si>
+  <si>
+    <t>收益率是根据净值变化的还是事先商量好的</t>
+  </si>
+  <si>
+    <t>净值型,非净值型</t>
+  </si>
+  <si>
+    <t>运作模式</t>
+  </si>
+  <si>
+    <t>流动性,收益率,</t>
+  </si>
+  <si>
+    <t>流动性与收益率不同</t>
+  </si>
+  <si>
+    <t>封闭式非净值型,封闭式净值型,开放式净值型,开放式非净值型</t>
+  </si>
+  <si>
+    <t>机构类别</t>
+  </si>
+  <si>
+    <t>发行方,卖出人,负责人</t>
+  </si>
+  <si>
+    <t>机构类别不同</t>
+  </si>
+  <si>
+    <t>国有银行,股份制银行,城商行,外资银行,农村合作金融机构,理财子公司</t>
+  </si>
+  <si>
+    <t>用户类型</t>
+  </si>
+  <si>
+    <t>适合人群,客户分类,面向客户</t>
+  </si>
+  <si>
+    <t>面向的人群不同</t>
+  </si>
+  <si>
+    <t>高资产净值客户,机构客户专属,金融同业客户专属,私人银行客户专属,一般个人客户,高风险,低风险,高收益,低收益,高流动性,低流动性</t>
+  </si>
+  <si>
+    <t>风险等级</t>
+  </si>
+  <si>
+    <t>风险承受能力,风险</t>
+  </si>
+  <si>
+    <t>风险程度不同</t>
+  </si>
+  <si>
+    <t>R1低风险产品,R2中低风险产品,R3中等风险产品,R4中高风险产品,R5高风险产品</t>
   </si>
 </sst>
 </file>
@@ -35,12 +167,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,44 +182,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,9 +219,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,30 +270,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,14 +311,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,187 +334,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,6 +525,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -418,50 +561,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,11 +596,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,153 +630,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1002,10 +1130,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1022,6 +1150,160 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
